--- a/src/test/resources/organiszationdata.xlsx
+++ b/src/test/resources/organiszationdata.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\testing class videos\eclipse programs\com.qspiders.encapsulation\com_cast_selenium_frameworks3\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4592165-DFDE-487B-AACF-C6DA8F407BB2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{699EA8FD-C264-4340-B28A-1F15603BD965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{88249DFD-451D-4C3C-98A6-9C251E7A4155}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{88249DFD-451D-4C3C-98A6-9C251E7A4155}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="products" sheetId="2" r:id="rId2"/>
+    <sheet name="orgname" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>organization name</t>
   </si>
@@ -229,77 +230,47 @@
     <t>Samsung-A36</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>30000</t>
-  </si>
-  <si>
-    <t>30001</t>
-  </si>
-  <si>
-    <t>30002</t>
-  </si>
-  <si>
-    <t>30003</t>
-  </si>
-  <si>
-    <t>30004</t>
-  </si>
-  <si>
-    <t>30005</t>
-  </si>
-  <si>
-    <t>30006</t>
-  </si>
-  <si>
-    <t>30007</t>
-  </si>
-  <si>
-    <t>30008</t>
-  </si>
-  <si>
-    <t>30009</t>
-  </si>
-  <si>
-    <t>30010</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Apollo</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Amazon Prime</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Axis Banks</t>
+  </si>
+  <si>
+    <t>Bluedarts</t>
+  </si>
+  <si>
+    <t>Sobha Ltds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,12 +296,6 @@
     <font>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -881,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3083BA14-DE11-41BB-B2B3-720CD59D026A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,128 +868,194 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>25000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ED439D0-1154-4505-B73F-BFE0B6D0A151}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="5" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>